--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H2">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I2">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J2">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N2">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q2">
-        <v>2819.532225681082</v>
+        <v>3683.207936833003</v>
       </c>
       <c r="R2">
-        <v>25375.79003112974</v>
+        <v>33148.87143149703</v>
       </c>
       <c r="S2">
-        <v>0.3984162489851862</v>
+        <v>0.5823035224522931</v>
       </c>
       <c r="T2">
-        <v>0.3984162489851863</v>
+        <v>0.5823035224522932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H3">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I3">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J3">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P3">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q3">
-        <v>550.1429181589342</v>
+        <v>659.6275576960783</v>
       </c>
       <c r="R3">
-        <v>4951.286263430408</v>
+        <v>5936.648019264705</v>
       </c>
       <c r="S3">
-        <v>0.07773838364471988</v>
+        <v>0.1042850300445703</v>
       </c>
       <c r="T3">
-        <v>0.07773838364471991</v>
+        <v>0.1042850300445703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H4">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I4">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J4">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N4">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q4">
-        <v>2036.737007572735</v>
+        <v>538.4699264998418</v>
       </c>
       <c r="R4">
-        <v>18330.63306815462</v>
+        <v>4846.229338498576</v>
       </c>
       <c r="S4">
-        <v>0.2878027466171005</v>
+        <v>0.08513039185213447</v>
       </c>
       <c r="T4">
-        <v>0.2878027466171006</v>
+        <v>0.08513039185213447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H5">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I5">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J5">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N5">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q5">
-        <v>132.3193308133156</v>
+        <v>106.906365450528</v>
       </c>
       <c r="R5">
-        <v>1190.87397731984</v>
+        <v>962.157289054752</v>
       </c>
       <c r="S5">
-        <v>0.01869748853043758</v>
+        <v>0.01690155816397968</v>
       </c>
       <c r="T5">
-        <v>0.01869748853043758</v>
+        <v>0.01690155816397968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H6">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I6">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J6">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N6">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q6">
-        <v>1110.643839053506</v>
+        <v>1026.54855699027</v>
       </c>
       <c r="R6">
-        <v>9995.794551481553</v>
+        <v>9238.937012912433</v>
       </c>
       <c r="S6">
-        <v>0.1569404131237817</v>
+        <v>0.1622940792253336</v>
       </c>
       <c r="T6">
-        <v>0.1569404131237817</v>
+        <v>0.1622940792253336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.272689</v>
       </c>
       <c r="I7">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J7">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N7">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q7">
-        <v>116.1812708791196</v>
+        <v>126.5791087701853</v>
       </c>
       <c r="R7">
-        <v>1045.631437912076</v>
+        <v>1139.211978931668</v>
       </c>
       <c r="S7">
-        <v>0.01641708710557805</v>
+        <v>0.02001175664524878</v>
       </c>
       <c r="T7">
-        <v>0.01641708710557805</v>
+        <v>0.02001175664524878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.272689</v>
       </c>
       <c r="I8">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J8">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P8">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q8">
         <v>22.66911610893644</v>
@@ -948,10 +948,10 @@
         <v>204.022044980428</v>
       </c>
       <c r="S8">
-        <v>0.003203277524430643</v>
+        <v>0.003583915539795444</v>
       </c>
       <c r="T8">
-        <v>0.003203277524430644</v>
+        <v>0.003583915539795444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.272689</v>
       </c>
       <c r="I9">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J9">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N9">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q9">
-        <v>83.92551495990621</v>
+        <v>18.50534766562856</v>
       </c>
       <c r="R9">
-        <v>755.329634639156</v>
+        <v>166.548128990657</v>
       </c>
       <c r="S9">
-        <v>0.01185916179993258</v>
+        <v>0.002925636921592136</v>
       </c>
       <c r="T9">
-        <v>0.01185916179993258</v>
+        <v>0.002925636921592136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>6.272689</v>
       </c>
       <c r="I10">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J10">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N10">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q10">
-        <v>5.452332793271111</v>
+        <v>3.674001764946</v>
       </c>
       <c r="R10">
-        <v>49.07099513944</v>
+        <v>33.066015884514</v>
       </c>
       <c r="S10">
-        <v>0.0007704462321544355</v>
+        <v>0.0005808480558020143</v>
       </c>
       <c r="T10">
-        <v>0.0007704462321544357</v>
+        <v>0.0005808480558020143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.272689</v>
       </c>
       <c r="I11">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J11">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N11">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q11">
-        <v>45.76504270460354</v>
+        <v>35.27892089765545</v>
       </c>
       <c r="R11">
-        <v>411.885384341432</v>
+        <v>317.510288078899</v>
       </c>
       <c r="S11">
-        <v>0.006466865844957861</v>
+        <v>0.005577485783950733</v>
       </c>
       <c r="T11">
-        <v>0.006466865844957862</v>
+        <v>0.005577485783950733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H12">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I12">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J12">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N12">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q12">
-        <v>3.705927327793333</v>
+        <v>19.146236164468</v>
       </c>
       <c r="R12">
-        <v>33.35334595014</v>
+        <v>172.316125480212</v>
       </c>
       <c r="S12">
-        <v>0.0005236690155561009</v>
+        <v>0.003026959365715196</v>
       </c>
       <c r="T12">
-        <v>0.000523669015556101</v>
+        <v>0.003026959365715196</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H13">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I13">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J13">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P13">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q13">
-        <v>0.7230950070466665</v>
+        <v>3.428909042561334</v>
       </c>
       <c r="R13">
-        <v>6.50785506342</v>
+        <v>30.860181383052</v>
       </c>
       <c r="S13">
-        <v>0.0001021775164487997</v>
+        <v>0.0005420996717792731</v>
       </c>
       <c r="T13">
-        <v>0.0001021775164487998</v>
+        <v>0.0005420996717792731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H14">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I14">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J14">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N14">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q14">
-        <v>2.677039569593333</v>
+        <v>2.799101369523667</v>
       </c>
       <c r="R14">
-        <v>24.09335612634</v>
+        <v>25.191912325713</v>
       </c>
       <c r="S14">
-        <v>0.0003782812106162938</v>
+        <v>0.0004425290711596798</v>
       </c>
       <c r="T14">
-        <v>0.0003782812106162939</v>
+        <v>0.0004425290711596798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H15">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I15">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J15">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N15">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q15">
-        <v>0.1739174390666667</v>
+        <v>0.555726028914</v>
       </c>
       <c r="R15">
-        <v>1.5652569516</v>
+        <v>5.001534260226</v>
       </c>
       <c r="S15">
-        <v>2.457554238072702E-05</v>
+        <v>8.785852705163718E-05</v>
       </c>
       <c r="T15">
-        <v>2.457554238072703E-05</v>
+        <v>8.785852705163718E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H16">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I16">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J16">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N16">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q16">
-        <v>1.459804331053333</v>
+        <v>5.336256177632333</v>
       </c>
       <c r="R16">
-        <v>13.13823897948</v>
+        <v>48.026305598691</v>
       </c>
       <c r="S16">
-        <v>0.000206278814809469</v>
+        <v>0.0008436452196654799</v>
       </c>
       <c r="T16">
-        <v>0.0002062788148094691</v>
+        <v>0.0008436452196654799</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H17">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I17">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J17">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N17">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q17">
-        <v>54.44361658499556</v>
+        <v>34.721929057016</v>
       </c>
       <c r="R17">
-        <v>489.9925492649601</v>
+        <v>312.497361513144</v>
       </c>
       <c r="S17">
-        <v>0.007693198646006576</v>
+        <v>0.005489427136069882</v>
       </c>
       <c r="T17">
-        <v>0.007693198646006577</v>
+        <v>0.005489427136069882</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H18">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I18">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J18">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P18">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q18">
-        <v>10.62295718076444</v>
+        <v>6.218367698802667</v>
       </c>
       <c r="R18">
-        <v>95.60661462688002</v>
+        <v>55.965309289224</v>
       </c>
       <c r="S18">
-        <v>0.001501085433442087</v>
+        <v>0.0009831042604751339</v>
       </c>
       <c r="T18">
-        <v>0.001501085433442087</v>
+        <v>0.0009831042604751341</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H19">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I19">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J19">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N19">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q19">
-        <v>39.32827144686222</v>
+        <v>5.076203925467333</v>
       </c>
       <c r="R19">
-        <v>353.95444302176</v>
+        <v>45.685835329206</v>
       </c>
       <c r="S19">
-        <v>0.005557312750750726</v>
+        <v>0.000802531781311104</v>
       </c>
       <c r="T19">
-        <v>0.005557312750750727</v>
+        <v>0.000802531781311104</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H20">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I20">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J20">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N20">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q20">
-        <v>2.555013504711111</v>
+        <v>1.007815822668</v>
       </c>
       <c r="R20">
-        <v>22.9951215424</v>
+        <v>9.070342404011999</v>
       </c>
       <c r="S20">
-        <v>0.0003610382202344217</v>
+        <v>0.000159332493192697</v>
       </c>
       <c r="T20">
-        <v>0.0003610382202344217</v>
+        <v>0.000159332493192697</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H21">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I21">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J21">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N21">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q21">
-        <v>21.44592169763555</v>
+        <v>9.677364618204667</v>
       </c>
       <c r="R21">
-        <v>193.01329527872</v>
+        <v>87.096281563842</v>
       </c>
       <c r="S21">
-        <v>0.003030433062965968</v>
+        <v>0.001529960730395566</v>
       </c>
       <c r="T21">
-        <v>0.003030433062965969</v>
+        <v>0.001529960730395566</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H22">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I22">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J22">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N22">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O22">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P22">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q22">
-        <v>6.931325987309334</v>
+        <v>9.676850294788</v>
       </c>
       <c r="R22">
-        <v>62.381933885784</v>
+        <v>87.091652653092</v>
       </c>
       <c r="S22">
-        <v>0.0009794365445460551</v>
+        <v>0.001529879417490528</v>
       </c>
       <c r="T22">
-        <v>0.0009794365445460554</v>
+        <v>0.001529879417490528</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H23">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I23">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J23">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>32.525452</v>
       </c>
       <c r="O23">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P23">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q23">
-        <v>1.352429977794667</v>
+        <v>1.733031975281333</v>
       </c>
       <c r="R23">
-        <v>12.171869800152</v>
+        <v>15.597287777532</v>
       </c>
       <c r="S23">
-        <v>0.0001911061962194494</v>
+        <v>0.0002739868725946794</v>
       </c>
       <c r="T23">
-        <v>0.0001911061962194495</v>
+        <v>0.0002739868725946794</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H24">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I24">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J24">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N24">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O24">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P24">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q24">
-        <v>5.006961091389333</v>
+        <v>1.414715909703667</v>
       </c>
       <c r="R24">
-        <v>45.062649822504</v>
+        <v>12.732443187333</v>
       </c>
       <c r="S24">
-        <v>0.000707512628753246</v>
+        <v>0.0002236621096657613</v>
       </c>
       <c r="T24">
-        <v>0.0007075126287532461</v>
+        <v>0.0002236621096657613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H25">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I25">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J25">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N25">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O25">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P25">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q25">
-        <v>0.3252838921066667</v>
+        <v>0.280873877274</v>
       </c>
       <c r="R25">
-        <v>2.92755502896</v>
+        <v>2.527864895466</v>
       </c>
       <c r="S25">
-        <v>4.596449970247621E-05</v>
+        <v>4.440527141188631E-05</v>
       </c>
       <c r="T25">
-        <v>4.596449970247622E-05</v>
+        <v>4.440527141188631E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H26">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I26">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J26">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N26">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O26">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P26">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q26">
-        <v>2.730323290565333</v>
+        <v>2.697039340892333</v>
       </c>
       <c r="R26">
-        <v>24.572909615088</v>
+        <v>24.273354068031</v>
       </c>
       <c r="S26">
-        <v>0.0003858105092879945</v>
+        <v>0.0004263933873210545</v>
       </c>
       <c r="T26">
-        <v>0.0003858105092879945</v>
+        <v>0.0004263933873210545</v>
       </c>
     </row>
   </sheetData>
